--- a/pt-BR/Traduzido/PTBR-Crowdin/Traduzido/PTBR/Lang/PTBR/Data/chara_talk.xlsx
+++ b/pt-BR/Traduzido/PTBR-Crowdin/Traduzido/PTBR/Lang/PTBR/Data/chara_talk.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Original\Unificado\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764C0421-7A8F-4436-8299-FAD221A48B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD0B124-C97F-4B0F-BDBE-5AD6CB17DA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17790" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$S$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$2:$T$115</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,96 +28,1333 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
-  <si>
-    <t>Meteor!
-Rain down, tears of the stars!
-Come forth, flame of the end. &amp;...Meteor!
-Stars, heed my voice...Meteor!
-There are no wishes left in this sky, &amp;no mercy left upon this earth. &amp;—then fall! Meteor!</t>
-  </si>
-  <si>
-    <t>Ba～rrel♪
-Barrel!
-Barre~l!
-Barrel.</t>
-  </si>
-  <si>
-    <t>Swarm!
-...Swarm!
-Begone!
-Etch this into your very soul! Swarm!
-Dance!</t>
-  </si>
-  <si>
-    <t>Blade Storm!
-I'll cut you to ribbons!
-This is the end!</t>
-  </si>
-  <si>
-    <t>It's hot!
-Too hot!
-I'm burning!
-Fire!
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>loner</t>
+  </si>
+  <si>
+    <t>depended</t>
+  </si>
+  <si>
+    <t>emo</t>
+  </si>
+  <si>
+    <t>asshole</t>
+  </si>
+  <si>
+    <t>hypocrite</t>
+  </si>
+  <si>
+    <t>pessimist</t>
+  </si>
+  <si>
+    <t>rogue</t>
+  </si>
+  <si>
+    <t>madman</t>
+  </si>
+  <si>
+    <t>queen</t>
+  </si>
+  <si>
+    <t>poet</t>
+  </si>
+  <si>
+    <t>cheerful</t>
+  </si>
+  <si>
+    <t>maam</t>
+  </si>
+  <si>
+    <t>knight</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>idol</t>
+  </si>
+  <si>
+    <t>sinner</t>
+  </si>
+  <si>
+    <t>confident</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>onFire</t>
+  </si>
+  <si>
+    <t>Está quente!
+Muito quente!
+Estou queimando!
+Fogo!
 Ahhh!
-This is bad!
-It’s burning!
-Help!</t>
-  </si>
-  <si>
-    <t>Phew...
-This is a nice bath.
-Feels so warm.
-Coming back to life!
-All toasty...
-My heart is cleansed.</t>
-  </si>
-  <si>
-    <t>Champagne! Champagne!</t>
-  </si>
-  <si>
-    <t>You really are a handful.
-I guess I have no choice.
-Just this once, ok?
-Sigh...</t>
-  </si>
-  <si>
-    <t>Satisfied?
-Hehe.
-Phew...
-Finally.
-Good grief.
-Honestly...</t>
-  </si>
-  <si>
-    <t>Babu~♪
-Bubu!
-Wahh!
-*giggle*
-Babu~
-Mama.</t>
-  </si>
-  <si>
-    <t>Yeehaw!
-Faster!
-Full speed ahead!
-Here we go!
-Zoom!
-We're off!</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">(Whisper)
-(Murmur)
-</t>
-    </r>
+Isso é ruim!
+Está queimando!
+Socorro!</t>
+  </si>
+  <si>
+    <t>hotspring</t>
+  </si>
+  <si>
+    <t>Ufa...
+Esse é um bom banho.
+Está tão quentinho.
+Estou voltando à vida!
+Todo aquecido...
+Meu coração está limpo.</t>
+  </si>
+  <si>
+    <t>champagne</t>
+  </si>
+  <si>
+    <t>Champanhe! Champanhe!</t>
+  </si>
+  <si>
+    <t>ticket</t>
+  </si>
+  <si>
+    <t>Você realmente dá trabalho.
+Acho que não tenho escolha.
+Só desta vez, ok?
+*Suspiro*...</t>
+  </si>
+  <si>
+    <t>ticket_finish</t>
+  </si>
+  <si>
+    <t>Satisfeito?_x000D_
+Hehe._x000D_
+Ufa..._x000D_
+Finalmente._x000D_
+Que coisa._x000D_
+Sinceramente...</t>
+  </si>
+  <si>
+    <t>baby</t>
+  </si>
+  <si>
+    <t>Babu~♪_x000D_
+Bubu!_x000D_
+Uahh!_x000D_
+*riso*_x000D_
+Babu~_x000D_
+Mamãe.</t>
+  </si>
+  <si>
+    <t>ride2</t>
+  </si>
+  <si>
+    <t>Yeehaw!_x000D_
+Mais rápido!_x000D_
+Cheio de velocidade!_x000D_
+Aqui vamos nós!_x000D_
+Zoom!_x000D_
+Estamos indo!</t>
+  </si>
+  <si>
+    <t>rumor_good</t>
+  </si>
+  <si>
+    <t>(Sussurro)
+(Murmúrio)
+Ah, meu Deus!
+Esplêndido!
+Me abrace!
+Olha isso!
+Uau!
+Um herói!
+Por favor, assine para mim!
+Incrível!
+Uhuu!
+Viva.</t>
+  </si>
+  <si>
+    <t>rumor_bad</t>
+  </si>
+  <si>
+    <t>(Sussurro)
+(Murmúrio)
+Escória.
+Eca.
+Ah, meu Deus!
+Que vergonha!
+Como você ousa.
+Fique longe!
+Não olhe.
+Boo-boo!
+Oh... o infame...
+O mundo está perdido.
+Seu canalha.
+Onde estão os guardas?</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Certo._x000D_
+Ok._x000D_
+Se você insiste._x000D_
+Sem problemas.</t>
+  </si>
+  <si>
+    <t>nice_statue</t>
+  </si>
+  <si>
+    <t>Hmmm._x000D_
+Isso é..._x000D_
+Lindo..._x000D_
+Que magnífico!_x000D_
+É o auge da arte!_x000D_
+Perfeito!_x000D_
+Está tão vivo..._x000D_
+Estou impressionado._x000D_
+Uau._x000D_
+Oh não.</t>
+  </si>
+  <si>
+    <t>shop_buy</t>
+  </si>
+  <si>
+    <t>Hmm..._x000D_
+Uma bela peça._x000D_
+Hmm._x000D_
+É uma boa._x000D_
+Me dê isso!_x000D_
+Agora é meu._x000D_
+Eu quero isso!_x000D_
+Certo!_x000D_
+Eu compro._x000D_
+Me dê isso._x000D_
+Esse aqui._x000D_
+Legal!</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>O quê?_x000D_
+Sim?</t>
+  </si>
+  <si>
+    <t>insulted</t>
+  </si>
+  <si>
+    <t>Ah...!
+Ah!
+Ahh!
+Ah... Ah...!
+Mais... Mais...
+Ahhh!
+Não... Não... Pare...!
+Oh sim!</t>
+  </si>
+  <si>
+    <t>little_saved</t>
+  </si>
+  <si>
+    <t>Um anjo me trouxe aqui.
+Onde é isso...?
+Adeus, anjo.
+Obrigado, anjo.</t>
+  </si>
+  <si>
+    <t>vomit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ugh-Ughu.  </t>
+  </si>
+  <si>
+    <t>insult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que pervertido.  
+Seu lixo.  
+Você é um caso perdido.  
+Você gosta de ser insultado... ?  
+Nojento.  
+Seu porco!  
+Pervertido.  
+Por que você não morre?  
+Por favor, morra.  
+Lixo♪  
+Caracol assustador.  
+Quer ser picado em pedacinhos?  
+Que caracol patético.  </t>
+  </si>
+  <si>
+    <t>insult_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você é um fracasso!  _x000D_
+Volte para seu buraco, seu fraco.  _x000D_
+Acha que pode me enfrentar?  _x000D_
+Vou te matar agora mesmo.  _x000D_
+Desapareça, insignificante.  _x000D_
+Seu maldito caracol!  _x000D_
+Vou te picar em pedacinhos agora mesmo.  _x000D_
+Vou te esmagar até virar uma pasta.  _x000D_
+Rasteje no chão.  _x000D_
+Você é só uma larva, uma larva.  _x000D_
+Você me dá nos nervos.  _x000D_
+Lute. Sofra!  _x000D_
+Vou arrancar esses olhos vulgares seus.  _x000D_
+Seu caracol!  _x000D_
+O que foi? Já acabou?  _x000D_
+Morra com dignidade.  _x000D_
+Você vai se arrepender de ter nascido.  _x000D_
+Seu porco.  </t>
+  </si>
+  <si>
+    <t>insult_f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você é um fracasso!  _x000D_
+Volte para seu buraco, seu fraco.  _x000D_
+Acha que pode me enfrentar?  _x000D_
+Vou te matar agora mesmo.  _x000D_
+Desapareça, insignificante.  _x000D_
+Seu maldito caracol!  _x000D_
+Vou te picar em pedacinhos agora mesmo.  _x000D_
+Vou te esmagar até virar uma pasta.  _x000D_
+Rasteje no chão.  _x000D_
+Você é só uma larva, uma larva.  _x000D_
+Você me dá nos nervos.  _x000D_
+Lute. Sofra!  _x000D_
+Vou arrancar esses olhos vulgares seus.  _x000D_
+Seu caracol!  _x000D_
+O que foi? Já acabou?  _x000D_
+Morra com dignidade.  _x000D_
+Você vai se arrepender de ter nascido.  _x000D_
+Seu porco.  </t>
+  </si>
+  <si>
+    <t>run_suicide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corra!  _x000D_
+Ahhhhh!  _x000D_
+Whoa.  _x000D_
+Não venha!  _x000D_
+É perigoso!  _x000D_
+Cuidado.  _x000D_
+Kyaaaaaaa!  _x000D_
+Nãããão!  _x000D_
+Arrrrgh!  </t>
+  </si>
+  <si>
+    <t>haul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu consigo!  _x000D_
+Com calma, com calma.  _x000D_
+Aqui vamos nós.  </t>
+  </si>
+  <si>
+    <t>eatammoth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vamos comerammoth.  </t>
+  </si>
+  <si>
+    <t>welcomeBack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bem vindo de volta!  
+Bem vindo de volta ao lar.  
+Onde você esteve?  
+Há quanto tempo.  
+Faz um tempo, não é?  
+Bem vindo.  
+Como foi sua jornada?  
+Sinta-se em casa.  </t>
+  </si>
+  <si>
+    <t>tooHeavy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De jeito nenhum.  _x000D_
+Eu não quero.  _x000D_
+Nunca!  </t>
+  </si>
+  <si>
+    <t>forceGive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegue, pegue!  
+Tá bom, pega.  
+Se quer tanto assim.  </t>
+  </si>
+  <si>
+    <t>forceGiveCurrency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seu ganancioso!  
+Desprezível...  
+Que vergonha.  
+Isso é exploração!  
+Estou decepcionado com você.  </t>
+  </si>
+  <si>
+    <t>sleepFav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(... #1!...  #1!)  
+(#1...)  
+(Por favor... #1...)  </t>
+  </si>
+  <si>
+    <t>pervert3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardas! Guardas!  
+Eek!  
+Nãooo!  
+Um pervertido!  
+O que diabos!?  
+Vista alguma coisa!  
+(corado)  
+Oh não!  
+Oh, céus...  
+Impressionante!  </t>
+  </si>
+  <si>
+    <t>pervert2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pervertido!  </t>
+  </si>
+  <si>
+    <t>scream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyaaaaa...!  _x000D_
+Ugh!  </t>
+  </si>
+  <si>
+    <t>eatWeird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu-eu me sinto... Estranho...  
+Uh.. Uh.. O que é essa sensação...?  </t>
+  </si>
+  <si>
+    <t>giveBirth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uh... !  </t>
+  </si>
+  <si>
+    <t>pervert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seu desgraçado!  _x000D_
+O que você está tentando fazer!?  _x000D_
+Guardas! Guardas! Guardas!  </t>
+  </si>
+  <si>
+    <t>noGiveRing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nunca!  _x000D_
+Você me enganou!  _x000D_
+Era uma mentira!  _x000D_
+Estou magoado(a)!  </t>
+  </si>
+  <si>
+    <t>noGive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem chance.  _x000D_
+Desculpe, não.  _x000D_
+É meu.  _x000D_
+Pare.  _x000D_
+Hã?  _x000D_
+Corta essa.  _x000D_
+Isso é meu!  _x000D_
+Não toque.  </t>
+  </si>
+  <si>
+    <t>labor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huff, huff...  _x000D_
+Quanto tempo isso vai durar?  _x000D_
+Por favor, pare!  _x000D_
+Estou cansado(a)!  _x000D_
+Meu corpo está doendo.  _x000D_
+Não aguento mais!  _x000D_
+Isso é difícil demais!  </t>
+  </si>
+  <si>
+    <t>seduce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu estou aqui...  
+Ah, que maravilha!  
+É hora de se divertir.  
+Não, não, você entendeu tudo errado!  
+Meu corpo... Está pegando fogo... !  
+Ei...  
+Isso aí, baby!  </t>
+  </si>
+  <si>
+    <t>seduced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ugh...  </t>
+  </si>
+  <si>
+    <t>intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afaste-se!  
+Por aqui!  
+Deixa comigo!  
+Não no meu turno!  
+Cuidado!  
+Eu não vou deixar você se machucar!  
+Eu vou te proteger!  
+Pare com isso!  
+Você está bem?  
+Cheguei a tempo?  
+Desculpe a demora.  
+Deixe comigo.  
+#1!  </t>
+  </si>
+  <si>
+    <t>angry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E você acha que pode simplesmente fugir?  </t>
+  </si>
+  <si>
+    <t>barter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dê uma olhada nas minhas mercadorias.  </t>
+  </si>
+  <si>
+    <t>becomeLivestock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null  </t>
+  </si>
+  <si>
+    <t>becomeResident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null  </t>
+  </si>
+  <si>
+    <t>bye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tchau.  </t>
+  </si>
+  <si>
+    <t>callGuards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardas! Guardas!  
+O que é isso? Guardas!  
+Guardas, venham rápido!  </t>
+  </si>
+  <si>
+    <t>changeTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chamaremos você de "#1" a partir de agora.  </t>
+  </si>
+  <si>
+    <t>chill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você está brincando?  
+Não perca meu tempo.  </t>
+  </si>
+  <si>
+    <t>chooseResident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null  </t>
+  </si>
+  <si>
+    <t>chooseSeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null  </t>
+  </si>
+  <si>
+    <t>chooseWorker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null  </t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem jogou esse lixo fora?  
+Um lixo.  
+Limpando, limpando♪  
+O que é isso?  </t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>death_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que decepção.  
+Não!  
+Oh...  
+Você está brincando?  
+Não morra!  
+Não vou conseguir dormir essa noite.  
+Por quê...  
+Isso não pode estar acontecendo!  
+Inútil.  </t>
+  </si>
+  <si>
+    <t>depart_choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você não precisa mais de mim?  </t>
+  </si>
+  <si>
+    <t>depart1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Então, tchau.  </t>
+  </si>
+  <si>
+    <t>depart2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você me assustou.  </t>
+  </si>
+  <si>
+    <t>ding_other</t>
+  </si>
+  <si>
+    <t>Bom!  
+Maravilhoso!  
+Impressionante!  
+Mandou bem!</t>
+  </si>
+  <si>
+    <t>ding_skill</t>
+  </si>
+  <si>
+    <t>Aqui vai.  
+Já era hora.  
+Ding!</t>
+  </si>
+  <si>
+    <t>disgust</t>
+  </si>
+  <si>
+    <t>Oh...  
+Não!  
+…  
+Pervertido.  
+Estou desapontado(a).  
+Você é louco(a)?  
+Sério?</t>
+  </si>
+  <si>
+    <t>drunk</t>
+  </si>
+  <si>
+    <t>*cambaleia*  
+*hic*</t>
+  </si>
+  <si>
+    <t>drunk_cat</t>
+  </si>
+  <si>
+    <t>Você quer ir, mas♪
+Numa numa yay!!
+Numa numa numa yay!!
+Olá♪
+Solidão♪
+Aaron♪
+Mai-Ya-Hi♪
+Mai-Ya-Hoo♪
+Mai-Ya-Ha Ma Mi A♪</t>
+  </si>
+  <si>
+    <t>drunk_counter</t>
+  </si>
+  <si>
+    <t>Seu tempo acabou, bêbado(a)!</t>
+  </si>
+  <si>
+    <t>drunk_mess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tome uma bebida, baby.  
+O que você está olhando?  
+Eu não estou bêbado(a).  
+Vamos nos divertir.  </t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>engage</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>fishing_Bad</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>fishing_Good</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>fishing_Great</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>fishing_hit</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>flyer_miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não, obrigado(a).  
+Irritante...  
+De novo?  
+Já tenho isso.  
+Pare!  </t>
+  </si>
+  <si>
+    <t>gift_good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obrigado(a)!  </t>
+  </si>
+  <si>
+    <t>goodBoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bom garoto(a).  
+Não tenha medo.  
+Isso, isso.  
+Fofinho(a).  
+Não precisa ter medo.  
+Peludinho(a), peludinho(a)!  
+*abraço*  
+Que fofo(a)! </t>
+  </si>
+  <si>
+    <t>hired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tudo bem, vou dar o meu melhor para não te decepcionar.  </t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>idle</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weeeeeee!  
+Perdão! Perdão!  
+P-P-Pika!  
+Shhhhhh!  
+Seu lesma!  
+Eu vou matar todos eles.  
+Ofereçam suas vidas!  
+Kwah.  
+Shaaaaa.  
+Bubuhu!  
+Hoo-ha-ha!  
+Ah, ah, ah.  
+Seu verme.  
+Senta!  
+Desculpa, desculpa!  
+Vermes! Vermes!
+Então teremos que matá-lo. Vai ser isso...   </t>
+  </si>
+  <si>
+    <t>layerGacha</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>layerHoard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vamos coletar mais fichas.  
+Você chama isso de Tesouro?  
+Eu adoraria ver mais!  </t>
+  </si>
+  <si>
+    <t>mahjong</t>
+  </si>
+  <si>
+    <t>Perdoe minha ousadia, Ron.  
+Duplo Riichi...!  
+Mantenha a calma... Estamos no meio de um jogo.  
+Vamos, garoto(a).  
+Eu não vou deixar acabar assim...!  
+Vou derrubar todo mundo!  
+*farfalhar*  
+*sussurro*  
+Pung!  
+Chow.</t>
+  </si>
+  <si>
+    <t>musicBad</t>
+  </si>
+  <si>
+    <t>Booo!  
+Cala a boca!  
+Você chama isso de música?  
+Irritante.  
+Amador.  
+Você não sabe tocar nada.</t>
+  </si>
+  <si>
+    <t>musicBored</t>
+  </si>
+  <si>
+    <t>Chato.  
+Já ouvi isso antes.  
+Essa música de novo?</t>
+  </si>
+  <si>
+    <t>musicGood</t>
+  </si>
+  <si>
+    <t>Viva!  
+Bravo!  
+Scut!  
+Isso sim é música.  
+Bela canção.</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>Oh Deus!  
+#1! #1!  
+Por favor, receba.
+Eu lhe ofereço..
+Senhor...  
+#1, ó Deus de #2</t>
+  </si>
+  <si>
+    <t>parasite</t>
+  </si>
+  <si>
+    <t>Com licença.  
+Obrigado(a)♪  
+Conto com você.  
+Bom, então...</t>
+  </si>
+  <si>
+    <t>parasite_fail</t>
+  </si>
+  <si>
+    <t>Se controla!  
+Ugh!  
+Não fuja!  
+Argh!  
+Arrrrrgggghh!  
+Gah!  
+Ei!  
+Morra!  
+Por aí não!  
+*estalido*  
+De novo isso?  
+O que você quer, hein?  
+De jeito nenhum!  
+Sério?  
+O quê?  
+Nãoo...  
+Nãooooo...  
+Shhh...!  
+Ughhh...  
+Não se mexa!  
+Não!  
+Não, não e não!</t>
+  </si>
+  <si>
+    <t>parasite_unride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phew...  
+Eu gostei♪  
+Me deixe montar de novo algum dia. </t>
+  </si>
+  <si>
+    <t>pick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null  </t>
+  </si>
+  <si>
+    <t>pushed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ei!  
+Oi.  
+O quê?
+Uh.  
+Aff.  
+Meu Deus.  
+Cuidado.  
+Olha por onde anda.  </t>
+  </si>
+  <si>
+    <t>restrained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seu pervertido!  _x000D_
+Me solte!  </t>
+  </si>
+  <si>
+    <t>ride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awww.  _x000D_
+Você devia fazer uma dieta.  _x000D_
+Vamos rolar!  _x000D_
+Seja gentil♪  </t>
+  </si>
+  <si>
+    <t>ride_unride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phew.  
+O que achou da minha montaria?  
+Cansado... Estou cansado...  
+Monte de novo quando quiser♪  </t>
+  </si>
+  <si>
+    <t>rumor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quero levar uma vida decente, mesmo nesses tempos.  _x000D_
+Estou tão entediado(a)!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu não gosto de multidões.  
+Me deixe em paz.  
+Por que vocês estão tão ansiosos para se intrometer? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espero que alguém me encontre.  _x000D_
+Estou sozinho, muito sozinho. Quero ser especial para alguém.  _x000D_
+Quero ser protegido.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu queria poder viver sem machucar ninguém.  
+Parei de lutar contra o demônio dentro de mim.  
+O mundo é um sonho que os mortos sonham em viver.  
+Guardei minhas emoções tão bem que agora esqueci onde as deixei.  
+Este mundo é cruel e, ao mesmo tempo, tão bonito. </t>
+  </si>
+  <si>
+    <t>Haha, que buraco imundo.  _x000D_
+Eu não trabalho nem um pouco. Isso é um problema?  _x000D_
+Sou um pedaço de lixo. Isso é ruim?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você será recompensado eventualmente, desde que continue vivendo!  _x000D_
+Vamos dar o nosso melhor. Trabalho duro nunca é em vão!  _x000D_
+O mundo está cheio de amor!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minha vida foi um lixo!  
+Espero que os humanos pereçam.  
+Que tipo de futuro resta para este planeta?  
+Não tenho esperança.  
+Todos os dias eu rezo para que uma guilhotina caia do céu sobre mim.  
+Olha, eu estou cansado.  
+Espero que todos que são mais felizes do que eu pereçam. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A culpa é dos enganados.  
+Ah, um bando de idiotas com suas caras estúpidas.  
+É divertido imaginar coisas más, não é?  
+Que se dane a lei!  
+O que você está olhando?  
+Quem diabos você pensa que é?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahahahaha!  
+Oh! Aquele ali! Ei! Ahaha!  
+A-ha-ha! Ha-ha! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu sei que você quer o meu corpo.  
+Agora rasteje e lamba minhas botas!  
+Quer mais agrados? Oh, seu porco nojento e repulsivo!  
+Grite mais alto!  
+Oh, esse, esse aí é um garoto realmente perturbado!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é a mente? Uma máquina tem uma?
+Quem age antes de pensar não passa de uma besta.  
+O lógica geralmente é melhor do que boas intenções.  
+Sou uma besta faminta por significado.
+Como a luz do dia pode compreender a profundidade da escuridão da noite? 
+Eu busco uma história única.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nada está errado! Nada é impossível!  _x000D_
+Não há motivo para se preocupar. Vamos nos divertir!  _x000D_
+Eu estou sempre feliz!  _x000D_
+Por que você me olha assim, haha?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, meu Deus, é o/a #aka!  
+Oh, céus!  
+Estou lisonjeada(o), querido(a)!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O único momento em que se pode ser corajoso é quando se está com medo.  
+Devemos ajudar os fracos, e viver com eles.  
+Sempre serei fiel à verdade e ao juramento que fiz.  
+Pela minha honra, irei proteger aqueles que me são queridos!  </t>
+  </si>
+  <si>
+    <t>Mentiras, mentiras, tudo isso são mentiras!  
+Você também vai me trair um dia, eu sei!  
+Só quero viver uma vida tranquila, mas todos sempre atrapalham.  
+Eu não sei mais de nada.  
+Me deixe em paz.  
+Você é o diabo! Eu não fui enganado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oi, meus fãs, sou eu, #me!  
+Ei, sou eu, #me, o/a ídolo de todos!  
+Oh, meu Deus, eu quero ser um/uma garoto(a) normal de novo!  
+O poder que me move vem do teu sorriso.
+Quero tornar todos os meus fãs, pessoas felizes!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não há salvação para minha alma errante.  
+Oh, Deus, é esse o julgamento que me deste?  
+Irás me libertar da minha condenação eterna?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agora que estou aqui, tudo ficará bem!  
+Não há com o que se preocupar.  
+Nenhum problema!  
+Estou bem aqui se precisar de algo!  
+Está tudo certo, é claro!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu queria ter coragem para mudar o que precisa ser mudado.  
+Por quanto tempo ainda conseguirei continuar?  
+Vamos tornar este mundo um lugar um pouco melhor, que tal?  </t>
+  </si>
+  <si>
+    <t>scold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ei!  
+Oi.  
+O quê?
+Uh.  
+Aff.  
+Meu Deus.  
+Cuidado.  
+Olha por onde anda.  
+Pare com isso!  
+Tenha cuidado!  </t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*zzz*  
+*zzz...*  
+*ZZZ*  
+*zzzz...*  
+*ZZZZ..*  
+*ronco*  
+*zzzz*  
+(...  Não consigo... Comer mais)  
+(... Desculpa... Desculpa...)  
+(... Uau)  
+(... Não... Pare!)  </t>
+  </si>
+  <si>
+    <t>snail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesma!  
+Vou lhe matar!  </t>
+  </si>
+  <si>
+    <t>snow_hit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*risada*  
+*sorriso*  
+Ei!  
+Tee-hee-hee!  
+Você vai pagar por isso.  
+Agora você fez o que não deveria, e vai pagar por isso.  </t>
+  </si>
+  <si>
+    <t>snow_throw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*sorriso*  
+Tome essa!  
+Segura!  
+Tee-hee-hee!  
+Cuidado!  
+Fogo na área!  </t>
+  </si>
+  <si>
+    <t>sup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O quê?  
+Hã?  
+... ?  
+Você precisa de algo?  
+O que você quer?  
+E aí?  
+Algo de errado?  
+O que foi?  </t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pc,human  </t>
+  </si>
+  <si>
+    <t>pc,human</t>
+  </si>
+  <si>
+    <t>pc,human</t>
+  </si>
+  <si>
+    <t>pc,human</t>
+  </si>
+  <si>
+    <t>pc,human</t>
+  </si>
+  <si>
+    <t>pc,human</t>
+  </si>
+  <si>
+    <t>pc,human</t>
+  </si>
+  <si>
+    <t>pc,human</t>
+  </si>
+  <si>
+    <t>pc,human</t>
+  </si>
+  <si>
+    <t>pc,human</t>
+  </si>
+  <si>
+    <t>pc,human</t>
+  </si>
+  <si>
+    <t>pc,human</t>
+  </si>
+  <si>
+    <t>pc,human</t>
+  </si>
+  <si>
+    <t>pc,human</t>
+  </si>
+  <si>
+    <t>pc,human</t>
+  </si>
+  <si>
+    <t>pc,human</t>
+  </si>
+  <si>
+    <t>pc,human</t>
+  </si>
+  <si>
+    <t>pc,human</t>
+  </si>
+  <si>
+    <t>pc,human</t>
+  </si>
+  <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim!  _x000D_
+Ohhh.  _x000D_
+*suspiro*  _x000D_
+*ronco*  _x000D_
+Venha!  _x000D_
+Isso aí, baby!  </t>
+  </si>
+  <si>
+    <t>tail_after</t>
+  </si>
+  <si>
+    <t>Você é incrível!  
+Meu Deus...  
+Ok, ok, você venceu!  
+Meu Deus... !</t>
+  </si>
+  <si>
+    <t>tail_nomoney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegue este dinheiro, é tudo o que tenho!  </t>
+  </si>
+  <si>
+    <t>tail_pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aqui, pegue isso.  </t>
+  </si>
+  <si>
+    <t>tailed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N... Não!  
+Sim!  
+P-Pare!  
+Uau.  
+Vamos lá.  
+Oh meu...
+Não olhe!  
+Desculpa, querido(a)...  
+Não! Não! Não... Oh sim!  </t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obrigado(a).  
+Valeu!
+Agradeço.  </t>
+  </si>
+  <si>
+    <t>thanks2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se você insiste.  _x000D_
+Sim, sim.  _x000D_
+Uh...  _x000D_
+Hã?  </t>
+  </si>
+  <si>
+    <t>thanks3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isto é... Obrigado(a)!  
+Meu Deus, obrigado(a)!  
+Brilhante!  
+Isso fez meu dia. Obrigado(a).  </t>
+  </si>
+  <si>
+    <t>visitor_greet</t>
+  </si>
+  <si>
+    <t>Olá!
+Bom dia.
+Salve  
+Prazer em conhecer  
+Então este é o lugar  
+Alguém aí?  
+De novo  
+Hã  
+Aqui vou eu!</t>
+  </si>
+  <si>
+    <t>visitor_leave</t>
+  </si>
+  <si>
+    <t>Tchau.
+Eu voltarei.
+Está na hora.
+Adeus.
+Até mais.
+Até logo.</t>
+  </si>
+  <si>
+    <t>witness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meu Deus!  
+Por favor, poupe minha vida!  
+Mas o quê...  
+Isso é um engano!  </t>
+  </si>
+  <si>
+    <t>work_farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prontos? Vai! Todo mundo junto!
+Lá vamos nós.  
+Um, dois.  </t>
+  </si>
+  <si>
+    <t>work_read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uh-huh.  _x000D_
+Interessante.  _x000D_
+Ah, entendi!  </t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uau!  
+Phew.  
+Isso é o melhor!  
+Que coisa incrível...  
+Eu sabia.  
+É...  </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -126,885 +1363,78 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Oh my!
-Splendid!
-Hug me!
-Look at that!
-Wow!
-A hero!
-Please sign for me!
-Incredible!
-Woo hoo!
-Hurray.</t>
+      <t>phrase_</t>
     </r>
-  </si>
-  <si>
-    <t>(Whisper)
-(Murmur)
-Scum.
-Eek.
-Oh my!
-Shame on you!
-How dare you.
-Stay away!
-Don't look.
-Boo-boo!
-Oh...the infamous...
-The world is doomed.
-You scoundrel.
-Where are guards?</t>
-  </si>
-  <si>
-    <t>Alright.
-Okay.
-If you insisit.
-No problem.</t>
-  </si>
-  <si>
-    <t>Hmmm.
-This is...
-Beautiful...
-How magnificent!
-It's the pinnacle of art!
-Perfect!
-It looks so alive...
-I'm impressed.
-Wow.
-Oh no.</t>
-  </si>
-  <si>
-    <t>Hmm...
-A fine piece.
-Hmm.
-It's a good one.
-Give it to me!
-It's mine now.
-I want this!
-Alright!
-I'll buy it.
-Give me this.
-This one.
-Nice!</t>
-  </si>
-  <si>
-    <t>What?
-Yes?</t>
-  </si>
-  <si>
-    <t>Ah...!
-Ah!
-Ahh!
-Ah... ah...!
-More... more...
-Ahhh!
-Don't..don't...stop...!
-Oh yes!</t>
-  </si>
-  <si>
-    <t>An angel brought me here.
-Where is this...?
-Goodbye, angel.
-Thank you, angel.</t>
-  </si>
-  <si>
-    <t>Ugh-Ughu.</t>
-  </si>
-  <si>
-    <t>What a pervert.
-You scum.
-You are hopeless.
-You like being insulted...?
-Gross.
-You pig!
-Pervert.
-Why don't you die?
-Please die.
-Trash♪
-Creepy snail.
-Want to be minced?
-Such a hopeless snail.</t>
-  </si>
-  <si>
-    <t>You suck!
-Crawl back into your hole, you weakling.
-You think you can fight me?
- I'll kill you right away.
-Disappear, you nobody.
-You snail bastard!
-I'll mince you up right away.
-I'll crush you into a pulp.
-Crawl on the ground.
-You're just a maggot, a maggot.
-You're an eyesore. 
-Struggle. Suffer!
-I'll gouge out those vulgar eyes of yours.
-You snail!
-What's the matter? Is it over already?
-Die gracefully.
-You'll regret being born.
-You pig.</t>
-  </si>
-  <si>
-    <t>You suck!
-Crawl back into your hole, you weakling.
-You think you can fight me?
- I'll kill you right away.
-Disappear, you nobody.
-You snail bastard!
-I'll mince you up right away.
-I'll crush you into a pulp.
-Crawl on the ground.
-You're just a maggot, a maggot.
-You're an eyesore. 
-Struggle. Suffer!
-I'll gouge out those vulgar eyes of yours.
-You snail!
-What's the matter? Is it over already?
-Die gracefully.
-You'll regret being born.
-You pig.</t>
-  </si>
-  <si>
-    <t>Run!
-Ahhhhh!
-Whoa.
-Don't come!
-It's dangerous!
-Watch out.
-Kyaaaaaaa!
-Nooooo!
-Arrrrgh!</t>
-  </si>
-  <si>
-    <t>I've got this!
-Gently, gently.
-Here we go.</t>
-  </si>
-  <si>
-    <t>Let's eatammoth.</t>
-  </si>
-  <si>
-    <t>Welcome back!
-Welcome home.
-Where have you been?
-Long time no see.
-It's been a while, hasn't it?
-Welcome backy.
-How was your journey?
-Make yourself at home.</t>
-  </si>
-  <si>
-    <t>No way.
-I don't want it.
-Never!</t>
-  </si>
-  <si>
-    <t>Take it, take it!
-Fine, take it.
-If you want this that badly.</t>
-  </si>
-  <si>
-    <t>You money-grubber!
-Despicable...
-How shameful.
-This is exploitation!
-I'm disappointed in you.</t>
-  </si>
-  <si>
-    <t>(...#1! ...#1!)
-(#1...)
-(Please...#1...)</t>
-  </si>
-  <si>
-    <t>Guard! Guard!
-Eek!
-Nooo!
-A pervert!
-What in the world!?
-Put some clothes on!
-(blush)
-Oh no!
-Oh, dear...
-Impressive!</t>
-  </si>
-  <si>
-    <t>Pervert!</t>
-  </si>
-  <si>
-    <t>Gyaaaaa...!
-Ugh!</t>
-  </si>
-  <si>
-    <t>I f-feel...strange...
-Uh..uh..What is this feeling...</t>
-  </si>
-  <si>
-    <t>Uh...!</t>
-  </si>
-  <si>
-    <t>You scum!
-hat are you trying to do!
-Guard! Guard! Guard!</t>
-  </si>
-  <si>
-    <t>Never!
-You tricked me!
-It was a lie!
-I'm hurt!</t>
-  </si>
-  <si>
-    <t>No chance.
-Sorry, no.
-It's mine.
-Stop.
-Huh?
-Cut it out.
-That is mine!
-Don't touch.</t>
-  </si>
-  <si>
-    <t>Huff, huff...
-How long will this go on?
-Please, stop!
-I'm tired!
-My body is aching.
-I can't take it anymore! 
-This is too hard!</t>
-  </si>
-  <si>
-    <t>I'm here...
-Oh, how delightful!
-It’s time for some fun.
-No, no, you’ve got it all wrong!
-My body... it’s burning up...!
-Hey...
-Yeah baby!</t>
-  </si>
-  <si>
-    <t>Ugh..</t>
-  </si>
-  <si>
-    <t>Get back!
-This way!
-I've got this!
-Not on my watch!
-Look out!
-I won’t let you get hurt!
-I will protect you!
-Stop it!
-Are you alright?
-Did I make it in time?
-Sorry to keep you waiting.
-Leave it to me.
-#1!</t>
-  </si>
-  <si>
-    <t>And you think you can just run away?</t>
-  </si>
-  <si>
-    <t>Take a look at my wares.</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>Bye.</t>
-  </si>
-  <si>
-    <t>Guard! Guard!
-What is this? Guard!
-Guard, come quick!</t>
-  </si>
-  <si>
-    <t>We will call you "#1" from now on.</t>
-  </si>
-  <si>
-    <t>Are you kidding?
-Don't waste my time.</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>Who threw away this trash?
-A garbage.
-Cleaning♪
-What's this?</t>
-  </si>
-  <si>
-    <t>How disappointing.
-No!
-Oh...
-Are you kidding?
-Don't die!
-Can't sleep tonight.
-Why...
-This can't happen!
-Worthless.</t>
-  </si>
-  <si>
-    <t>You don't need me any more?</t>
-  </si>
-  <si>
-    <t>Bye then.</t>
-  </si>
-  <si>
-    <t>You frightened me.</t>
-  </si>
-  <si>
-    <t>Good!
-Wonderful
-Impressive!
-Way to go.</t>
-  </si>
-  <si>
-    <t>Here it goes.
-About time.
-Ding!</t>
-  </si>
-  <si>
-    <t>Oh...
-No!
-…
-Pervert.
-I'm disappointed.
-You insane?
-Serious?</t>
-  </si>
-  <si>
-    <t>*stagger*
-*hic*</t>
-  </si>
-  <si>
-    <t>Vrei sa pleci dar♪
-Numa numa yay!!"
-Numa numa numa yay!!
-Hello♪
-Alone♪
-Aaron♪
-Mai-Ya-Hi♪
-Mai-Ya-Hoo♪
-Mai-Ya-Ha Ma Mi A♪</t>
-  </si>
-  <si>
-    <t>Your time is over, drunk!</t>
-  </si>
-  <si>
-    <t>Have a drink baby.
-What are you looking at?
-I ain't drunk.
-Let's have fun.</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>No thanks.
-Annoying...
-Again?
-Already have it.
-Stop!</t>
-  </si>
-  <si>
-    <t>Thank you!</t>
-  </si>
-  <si>
-    <t>Good boy.
-Don't be afraid.
-There, there.
-Cute one.
-No need to be scared.
-Fluffy, fluffy!
-*cuddle*
-So cute!</t>
-  </si>
-  <si>
-    <t>Alright, I will try my best not to let you down.</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>Weeeeeee!
-Forgive! Forgive!
-P-P-Pika!
-Shhhhhh!
-You snail!
-I’m going to kill them all.
-Offer your lives!
-Kwah.
-Shaaaaa.
-Bubuhu!
-Hoo-ha-ha!
-Ah, ah, ah.
-You slug.
-Sit!
-I'm sorry, I'm sorry!
-Oozhimushi... oozhimushi... 
-Then we have to kill it. Yeah...</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>Let's collect more tokens.
-You call this Hoard?
-I'd love to see more!</t>
-  </si>
-  <si>
-    <t>Excuse my impudence, Ron.
-Double Riichi...!
-Keep it down... We're in the middle of a game.
-Let's go, kid.
-I won't let it end just yet...!
-I'll knock down everyone!
-*rustle*
-*whispering*
-Pung!
-Chow.</t>
-  </si>
-  <si>
-    <t>Booo!
-Shut it!
-You call this music?
-Annoying.
-Amateur.
-You can't play shit.</t>
-  </si>
-  <si>
-    <t>Boring.
-I've heard this before.
-This song again?</t>
-  </si>
-  <si>
-    <t>Hurray!
-Bravo!
-Scut!
-This is the music.
-Nice song.</t>
-  </si>
-  <si>
-    <t>Oh God!
-#1！#1！
-Please recieve
-I offer you
-Lord...
-#1, o God of #2</t>
-  </si>
-  <si>
-    <t>Excuse me.
-Thank you♪
-I'll be in your care.
-Well then...</t>
-  </si>
-  <si>
-    <t>Get a grip!
-Ugh!
-Don't run away!
-Argh!
-Arrrrrgggghh!
-Gah!
-Hey!
-Die!
-Not that way!
-*snap*
-That again?
-What do you want huh?
-No way!
-Seriously?
-What?
-Noo...
-Noooo...
-Shhh...!
-Ughhh...
-Don't move!
-No!
-Nonono!</t>
-  </si>
-  <si>
-    <t>Phew...
-I enjoyed it♪
-Let me ride again sometime.</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>Hey!
-Oi.
-What.
-Uh.
-Geez.
-Oh boy.
-Watch out.
-Watch it.</t>
-  </si>
-  <si>
-    <t>You pervert!
-Let me go!</t>
-  </si>
-  <si>
-    <t>Awww.
-You should go on a diet.
-Let's roll!
-Be gentle♪</t>
-  </si>
-  <si>
-    <t>Phew.
-How was my ride?
-Tired...tired...
-Ride again anytime♪</t>
-  </si>
-  <si>
-    <t>I want to live a decent life even in such times.
-I'm so bored!</t>
-  </si>
-  <si>
-    <t>I don't like crowds.
-Leave me alone.
-Why are you people so eager to interfere?</t>
-  </si>
-  <si>
-    <t>I hope someone will pick me up.
-I'm lonely, very lonely. I want to be special to someone.
-I want to be protected.</t>
-  </si>
-  <si>
-    <t>I wish I could live my life without hurting anyone.
-I stopped fighting the demon inside me.
-The world is a dream the dead see.
-I've kept my emotions so carefully away. Now I forgot where I left them.
-This world is cruel yet so beautiful.</t>
-  </si>
-  <si>
-    <t>Haha, it's a shithole.
-I don't work at all. Is that okay?
-I'm a piece of shit. Is that bad?</t>
-  </si>
-  <si>
-    <t>You will be eventually rewarded as long as you continue to live!
-Let's do our best. Hard work is never in vain!
-The world is full of love!</t>
-  </si>
-  <si>
-    <t>My life was like garbage!
-I hope human beings perish.
-What kind of future is left for this planet?
-I have no hope.
-Every day I pray that a guillotine will fall on me from the sky.
-Look, I'm tired.
-I hope everyone happier than me perishes.</t>
-  </si>
-  <si>
-    <t>The scammed are to blame.
-Oh, a bunch of dumb people with their stupid faces.
-It's fun to imagine evil things, right?
-Screw the law!
-What are you looking at?
-Who  the hell do you think you are?</t>
-  </si>
-  <si>
-    <t>Ahahahaha!
-Oh! That one! Hey! Ahaha!
-A-ha-ha! Ha-ha!</t>
-  </si>
-  <si>
-    <t>I know you're after my body.
-Now crawl over and lick my boots!
-You want more treats? Oh, you outrageously disgusting pig!
-Squeal louder!
-Oh, that, that, that is one messed up boy!</t>
-  </si>
-  <si>
-    <t>What is the mind? Does a machine have a mind?
-He who acts before thinking is but a beast.
-What exists is usually better than good intentions.
-I am a beast hungry for meaning.
-How can the light of day know the depth of the darkness of night?
-I seek the one story.</t>
-  </si>
-  <si>
-    <t>Nothing is wrong! Nothing is impossible!
-There is no point in worrying. Let's have fun!
-I'm always happy!
-Why do you look at me like that, haha?</t>
-  </si>
-  <si>
-    <t>Oh my goodness, it's #aka!
-Oh dear! 
-Oh, oh, I'm flattered, darling!</t>
-  </si>
-  <si>
-    <t>The only time one can be brave is when one is afraid.
-We must help the weak and live with them.
-I will always be faithful to the truth and the oath I have sworn.
-On my honor, I will protect those who are dear to me!</t>
-  </si>
-  <si>
-    <t>Lies, lies, this is all lies!
-You will betray me one day too, I know it!
-I just want to live a quiet life, but everyone always gets in my way.
-I don't know anything anymore.
-Leave me alone.
-You're the devil! I'm not deceived.</t>
-  </si>
-  <si>
-    <t>Hi my fans, it's me, #me!
-Hey, it's me, #me, everyone's idol!
-Oh, my God, I want to be a normal girl again!
-Your smiles are my power!
-I want to make all my fans happy!</t>
-  </si>
-  <si>
-    <t>There is no salvation for my wandering soul.
-Oh, God, is that the judgment you have rendered upon me?
-Will you release me from my eternal condemnation?</t>
-  </si>
-  <si>
-    <t>Now that I am here, everything will be alright!
-There is nothing to worry about.
-No problem!
-I'm right here if you have any problems!
-Everything is alright, of course!</t>
-  </si>
-  <si>
-    <t>I wish I had the courage to change what needs to be changed.
-How long will I be able to keep going?
-Let's make this world a little better place, shall we?</t>
-  </si>
-  <si>
-    <t>Hey!
-Oi.
-What.
-Uh.
-Geez.
-Oh boy.
-Watch out.
-Watch it.
-Stop it!
-Be careful!</t>
-  </si>
-  <si>
-    <t>*zzz*
-*zzz...*
-*ZZZ*
-*zzzz...*
-*ZZZZ..*
-*snore*
-*zzzz*
-(...can't..eat more)
-(...sorry..sorry...)
-(...wow)
-(....no...stop!)</t>
-  </si>
-  <si>
-    <t>Snail!
-Kill!</t>
-  </si>
-  <si>
-    <t>*chuckle*
-*grin*
-Hey!
-Tee-hee-hee!
-You'll pay for this.
-Now you did it.</t>
-  </si>
-  <si>
-    <t>*grin*
-Eat this!
-Scut!
-Tee-hee-hee!
-Watch out!
-Fire in the hole!</t>
-  </si>
-  <si>
-    <t>What?
-Huh?
-...?
-Did you need something?
-What do you want?
-What's up?
-Is something wrong?
-What is it?</t>
-  </si>
-  <si>
-    <t>pc,human</t>
-  </si>
-  <si>
-    <t>pc,human</t>
-  </si>
-  <si>
-    <t>pc,human</t>
-  </si>
-  <si>
-    <t>pc,human</t>
-  </si>
-  <si>
-    <t>pc,human</t>
-  </si>
-  <si>
-    <t>pc,human</t>
-  </si>
-  <si>
-    <t>pc,human</t>
-  </si>
-  <si>
-    <t>pc,human</t>
-  </si>
-  <si>
-    <t>pc,human</t>
-  </si>
-  <si>
-    <t>pc,human</t>
-  </si>
-  <si>
-    <t>pc,human</t>
-  </si>
-  <si>
-    <t>pc,human</t>
-  </si>
-  <si>
-    <t>pc,human</t>
-  </si>
-  <si>
-    <t>pc,human</t>
-  </si>
-  <si>
-    <t>pc,human</t>
-  </si>
-  <si>
-    <t>pc,human</t>
-  </si>
-  <si>
-    <t>pc,human</t>
-  </si>
-  <si>
-    <t>pc,human</t>
-  </si>
-  <si>
-    <t>pc,human</t>
-  </si>
-  <si>
-    <t>Yes!
-Ohhh.
-*gasp*
-*rumble*
-Come!
-Yeah baby!</t>
-  </si>
-  <si>
-    <t>You are awesome!
-Oh my god...
-Okay, okay, you win!
-Holy...!</t>
-  </si>
-  <si>
-    <t>Take this money, it's all I have!</t>
-  </si>
-  <si>
-    <t>Here, take this.</t>
-  </si>
-  <si>
-    <t>N...no!
-Yes!
-S...stop!
-Wow.
-Come on.
-Oh my...
-Don't look!
-I'm sorry, darling...
-No! No! No...oh yes!</t>
-  </si>
-  <si>
-    <t>Thanks.
-Thanks!
-Appreciate it.</t>
-  </si>
-  <si>
-    <t>If you insist.
-Yes yes.
-Uh...
-Huh?</t>
-  </si>
-  <si>
-    <t>This is...Thank you!
-Oh my god, thank you!
-Brilliant!
-This made my day. Thank you.</t>
-  </si>
-  <si>
-    <t>Hello
-Good day
-Hail
-Well met
-So this is the place
-Anyone there?
-Again
-Huh
-Here I come</t>
-  </si>
-  <si>
-    <t>Bye
-I shall return
-It's time
-Farewell
-ta-ta
-So long</t>
-  </si>
-  <si>
-    <t>Oh my god!
-Please spare my life!
-What the...
-This is a mistake!</t>
-  </si>
-  <si>
-    <t>Heave ho!
-Up we go.
-One two.</t>
-  </si>
-  <si>
-    <t>Uh huh.
-Interesting.
-Oh I see!</t>
-  </si>
-  <si>
-    <t>Wow!
-Phew.
-This is the best!
-What an incredible thing...
-I knew it.
-Yeah...</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>SpMeteor</t>
+    </r>
+  </si>
+  <si>
+    <t>Meteoro!
+Chovam, lágrimas das estrelas!
+Venha, chama do fim!
+Estrelas, atendam à minha voz... Meteoro!
+Não há mais desejos neste céu, e nem misericórdia nesta terra — então caiam! Meteoro!</t>
+  </si>
+  <si>
+    <t>barrel</t>
+  </si>
+  <si>
+    <t>Ba～rril♪
+Barril!
+Barri~l!
+Barril.</t>
+  </si>
+  <si>
+    <t>phrase_ActSwarm</t>
+  </si>
+  <si>
+    <t>Enxame!
+... Enxame!
+Sumam!
+Gravem isso em suas almas! Enxame!
+Dancem!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>phrase_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ActBladeStorm</t>
+    </r>
+  </si>
+  <si>
+    <t>Tempestade de Lâminas!
+Vou te cortar em pedaços!
+Este é o fim!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1017,6 +1447,13 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1040,7 +1477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1053,6 +1490,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1085,9 +1525,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>857760</xdr:colOff>
+      <xdr:colOff>1450470</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1103,7 +1543,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="50986440" cy="129960"/>
+          <a:ext cx="50988600" cy="132120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1141,10 +1581,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>521280</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>68400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523440</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1160,7 +1600,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="55514160" cy="38651760"/>
+          <a:ext cx="55516320" cy="36191160"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -1300,42 +1740,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CL119"/>
+  <dimension ref="A1:CM120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="BU4" sqref="BU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="40" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28" style="1" customWidth="1"/>
-    <col min="6" max="6" width="54.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="45.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" customWidth="1"/>
-    <col min="10" max="10" width="51.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="57.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="39.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="25.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="54" style="1" customWidth="1"/>
-    <col min="15" max="15" width="56.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="38.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="51.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="39.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="54.42578125" style="1" customWidth="1"/>
-    <col min="20" max="49" width="11.5703125" style="1"/>
-    <col min="91" max="16384" width="11.5703125" style="2"/>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="61.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28" style="1" customWidth="1"/>
+    <col min="7" max="7" width="54.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="51.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="45.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24" style="1" customWidth="1"/>
+    <col min="11" max="11" width="51.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="57.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="39.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="54" style="1" customWidth="1"/>
+    <col min="16" max="16" width="56.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="38.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="51.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="39.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="54.42578125" style="1" customWidth="1"/>
+    <col min="21" max="50" width="11.5703125" style="1"/>
+    <col min="92" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="T1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="U1"/>
       <c r="V1"/>
       <c r="W1"/>
@@ -1363,9 +1863,9 @@
       <c r="AS1"/>
       <c r="AT1"/>
       <c r="AU1"/>
+      <c r="AV1"/>
     </row>
     <row r="2" spans="1:48">
-      <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
@@ -1393,108 +1893,156 @@
       <c r="AS2"/>
       <c r="AT2"/>
       <c r="AU2"/>
-    </row>
-    <row r="3" spans="1:48" customFormat="1" ht="115.5">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="AV3" s="1"/>
-    </row>
-    <row r="4" spans="1:48" customFormat="1" ht="66">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="AV4" s="1"/>
-    </row>
-    <row r="5" spans="1:48" customFormat="1" ht="82.5">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="AV5" s="1"/>
-    </row>
-    <row r="6" spans="1:48" customFormat="1" ht="49.5">
+      <c r="AV2"/>
+    </row>
+    <row r="3" spans="1:48">
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+    </row>
+    <row r="4" spans="1:48" ht="132">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+    </row>
+    <row r="5" spans="1:48" ht="99">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+    </row>
+    <row r="6" spans="1:48">
       <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="AV6" s="1"/>
-    </row>
-    <row r="7" spans="1:48" ht="132">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6"/>
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
+    </row>
+    <row r="7" spans="1:48" ht="66">
       <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T7"/>
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
@@ -1522,13 +2070,16 @@
       <c r="AS7"/>
       <c r="AT7"/>
       <c r="AU7"/>
+      <c r="AV7"/>
     </row>
     <row r="8" spans="1:48" ht="99">
       <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="T8"/>
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3"/>
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8"/>
@@ -1556,13 +2107,16 @@
       <c r="AS8"/>
       <c r="AT8"/>
       <c r="AU8"/>
-    </row>
-    <row r="9" spans="1:48">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="T9"/>
+      <c r="AV8"/>
+    </row>
+    <row r="9" spans="1:48" ht="99">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3"/>
       <c r="U9"/>
       <c r="V9"/>
       <c r="W9"/>
@@ -1590,13 +2144,15 @@
       <c r="AS9"/>
       <c r="AT9"/>
       <c r="AU9"/>
-    </row>
-    <row r="10" spans="1:48" ht="66">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="T10"/>
+      <c r="AV9"/>
+    </row>
+    <row r="10" spans="1:48" ht="99">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="U10"/>
       <c r="V10"/>
       <c r="W10"/>
@@ -1624,13 +2180,15 @@
       <c r="AS10"/>
       <c r="AT10"/>
       <c r="AU10"/>
-    </row>
-    <row r="11" spans="1:48" ht="99">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="T11"/>
+      <c r="AV10"/>
+    </row>
+    <row r="11" spans="1:48" ht="153">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="U11"/>
       <c r="V11"/>
       <c r="W11"/>
@@ -1658,13 +2216,16 @@
       <c r="AS11"/>
       <c r="AT11"/>
       <c r="AU11"/>
-    </row>
-    <row r="12" spans="1:48" ht="99">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="T12"/>
+      <c r="AV11"/>
+    </row>
+    <row r="12" spans="1:48" ht="178.5">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4"/>
       <c r="U12"/>
       <c r="V12"/>
       <c r="W12"/>
@@ -1692,12 +2253,15 @@
       <c r="AS12"/>
       <c r="AT12"/>
       <c r="AU12"/>
-    </row>
-    <row r="13" spans="1:48" ht="99">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T13"/>
+      <c r="AV12"/>
+    </row>
+    <row r="13" spans="1:48" ht="66">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13"/>
@@ -1725,12 +2289,16 @@
       <c r="AS13"/>
       <c r="AT13"/>
       <c r="AU13"/>
-    </row>
-    <row r="14" spans="1:48" ht="190.5">
-      <c r="A14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="T14"/>
+      <c r="AV13"/>
+    </row>
+    <row r="14" spans="1:48" ht="165">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3"/>
       <c r="U14"/>
       <c r="V14"/>
       <c r="W14"/>
@@ -1758,13 +2326,15 @@
       <c r="AS14"/>
       <c r="AT14"/>
       <c r="AU14"/>
-    </row>
-    <row r="15" spans="1:48" ht="178.5">
-      <c r="A15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="T15"/>
+      <c r="AV14"/>
+    </row>
+    <row r="15" spans="1:48" ht="198">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="U15"/>
       <c r="V15"/>
       <c r="W15"/>
@@ -1792,12 +2362,15 @@
       <c r="AS15"/>
       <c r="AT15"/>
       <c r="AU15"/>
-    </row>
-    <row r="16" spans="1:48" ht="66">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T16"/>
+      <c r="AV15"/>
+    </row>
+    <row r="16" spans="1:48" ht="33">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="U16"/>
       <c r="V16"/>
       <c r="W16"/>
@@ -1825,13 +2398,15 @@
       <c r="AS16"/>
       <c r="AT16"/>
       <c r="AU16"/>
-    </row>
-    <row r="17" spans="1:47" ht="165">
-      <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="T17"/>
+      <c r="AV16"/>
+    </row>
+    <row r="17" spans="1:48" ht="102">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="U17"/>
       <c r="V17"/>
       <c r="W17"/>
@@ -1859,12 +2434,15 @@
       <c r="AS17"/>
       <c r="AT17"/>
       <c r="AU17"/>
-    </row>
-    <row r="18" spans="1:47" ht="198">
-      <c r="A18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T18"/>
+      <c r="AV17"/>
+    </row>
+    <row r="18" spans="1:48" ht="66">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="U18"/>
       <c r="V18"/>
       <c r="W18"/>
@@ -1892,12 +2470,16 @@
       <c r="AS18"/>
       <c r="AT18"/>
       <c r="AU18"/>
-    </row>
-    <row r="19" spans="1:47" ht="33">
-      <c r="A19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T19"/>
+      <c r="AV18"/>
+    </row>
+    <row r="19" spans="1:48">
+      <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="3"/>
       <c r="U19"/>
       <c r="V19"/>
       <c r="W19"/>
@@ -1925,12 +2507,15 @@
       <c r="AS19"/>
       <c r="AT19"/>
       <c r="AU19"/>
-    </row>
-    <row r="20" spans="1:47" ht="102">
-      <c r="A20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="T20"/>
+      <c r="AV19"/>
+    </row>
+    <row r="20" spans="1:48" ht="214.5">
+      <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="U20"/>
       <c r="V20"/>
       <c r="W20"/>
@@ -1958,12 +2543,15 @@
       <c r="AS20"/>
       <c r="AT20"/>
       <c r="AU20"/>
-    </row>
-    <row r="21" spans="1:47" ht="66">
-      <c r="A21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T21"/>
+      <c r="AV20"/>
+    </row>
+    <row r="21" spans="1:48" ht="297">
+      <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="U21"/>
       <c r="V21"/>
       <c r="W21"/>
@@ -1991,13 +2579,15 @@
       <c r="AS21"/>
       <c r="AT21"/>
       <c r="AU21"/>
-    </row>
-    <row r="22" spans="1:47">
+      <c r="AV21"/>
+    </row>
+    <row r="22" spans="1:48" ht="297">
       <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="T22"/>
+        <v>56</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="U22"/>
       <c r="V22"/>
       <c r="W22"/>
@@ -2025,12 +2615,15 @@
       <c r="AS22"/>
       <c r="AT22"/>
       <c r="AU22"/>
-    </row>
-    <row r="23" spans="1:47" ht="214.5">
-      <c r="A23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T23"/>
+      <c r="AV22"/>
+    </row>
+    <row r="23" spans="1:48" ht="148.5">
+      <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="U23"/>
       <c r="V23"/>
       <c r="W23"/>
@@ -2058,12 +2651,15 @@
       <c r="AS23"/>
       <c r="AT23"/>
       <c r="AU23"/>
-    </row>
-    <row r="24" spans="1:47" ht="297">
-      <c r="A24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T24"/>
+      <c r="AV23"/>
+    </row>
+    <row r="24" spans="1:48" ht="49.5">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="U24"/>
       <c r="V24"/>
       <c r="W24"/>
@@ -2091,12 +2687,15 @@
       <c r="AS24"/>
       <c r="AT24"/>
       <c r="AU24"/>
-    </row>
-    <row r="25" spans="1:47" ht="297">
-      <c r="A25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25"/>
+      <c r="AV24"/>
+    </row>
+    <row r="25" spans="1:48">
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="U25"/>
       <c r="V25"/>
       <c r="W25"/>
@@ -2124,12 +2723,15 @@
       <c r="AS25"/>
       <c r="AT25"/>
       <c r="AU25"/>
-    </row>
-    <row r="26" spans="1:47" ht="148.5">
-      <c r="A26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="T26"/>
+      <c r="AV25"/>
+    </row>
+    <row r="26" spans="1:48" ht="132">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="U26"/>
       <c r="V26"/>
       <c r="W26"/>
@@ -2157,12 +2759,15 @@
       <c r="AS26"/>
       <c r="AT26"/>
       <c r="AU26"/>
-    </row>
-    <row r="27" spans="1:47" ht="49.5">
-      <c r="A27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T27"/>
+      <c r="AV26"/>
+    </row>
+    <row r="27" spans="1:48" ht="49.5">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="U27"/>
       <c r="V27"/>
       <c r="W27"/>
@@ -2190,12 +2795,15 @@
       <c r="AS27"/>
       <c r="AT27"/>
       <c r="AU27"/>
-    </row>
-    <row r="28" spans="1:47">
+      <c r="AV27"/>
+    </row>
+    <row r="28" spans="1:48" ht="49.5">
       <c r="A28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T28"/>
+        <v>68</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="U28"/>
       <c r="V28"/>
       <c r="W28"/>
@@ -2223,12 +2831,15 @@
       <c r="AS28"/>
       <c r="AT28"/>
       <c r="AU28"/>
-    </row>
-    <row r="29" spans="1:47" ht="132">
-      <c r="A29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T29"/>
+      <c r="AV28"/>
+    </row>
+    <row r="29" spans="1:48" ht="82.5">
+      <c r="A29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="U29"/>
       <c r="V29"/>
       <c r="W29"/>
@@ -2256,12 +2867,15 @@
       <c r="AS29"/>
       <c r="AT29"/>
       <c r="AU29"/>
-    </row>
-    <row r="30" spans="1:47" ht="49.5">
-      <c r="A30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T30"/>
+      <c r="AV29"/>
+    </row>
+    <row r="30" spans="1:48" ht="49.5">
+      <c r="A30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="U30"/>
       <c r="V30"/>
       <c r="W30"/>
@@ -2289,12 +2903,16 @@
       <c r="AS30"/>
       <c r="AT30"/>
       <c r="AU30"/>
-    </row>
-    <row r="31" spans="1:47" ht="49.5">
-      <c r="A31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T31"/>
+      <c r="AV30"/>
+    </row>
+    <row r="31" spans="1:48" ht="165">
+      <c r="A31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="3"/>
       <c r="U31"/>
       <c r="V31"/>
       <c r="W31"/>
@@ -2322,12 +2940,15 @@
       <c r="AS31"/>
       <c r="AT31"/>
       <c r="AU31"/>
-    </row>
-    <row r="32" spans="1:47" ht="82.5">
-      <c r="A32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T32"/>
+      <c r="AV31"/>
+    </row>
+    <row r="32" spans="1:48">
+      <c r="A32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="U32"/>
       <c r="V32"/>
       <c r="W32"/>
@@ -2355,12 +2976,15 @@
       <c r="AS32"/>
       <c r="AT32"/>
       <c r="AU32"/>
-    </row>
-    <row r="33" spans="1:47" ht="49.5">
-      <c r="A33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T33"/>
+      <c r="AV32"/>
+    </row>
+    <row r="33" spans="1:48" ht="33">
+      <c r="A33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="U33"/>
       <c r="V33"/>
       <c r="W33"/>
@@ -2388,13 +3012,15 @@
       <c r="AS33"/>
       <c r="AT33"/>
       <c r="AU33"/>
-    </row>
-    <row r="34" spans="1:47" ht="165">
-      <c r="A34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="T34"/>
+      <c r="AV33"/>
+    </row>
+    <row r="34" spans="1:48" ht="33">
+      <c r="A34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="U34"/>
       <c r="V34"/>
       <c r="W34"/>
@@ -2422,12 +3048,15 @@
       <c r="AS34"/>
       <c r="AT34"/>
       <c r="AU34"/>
-    </row>
-    <row r="35" spans="1:47">
+      <c r="AV34"/>
+    </row>
+    <row r="35" spans="1:48">
       <c r="A35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T35"/>
+        <v>82</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="U35"/>
       <c r="V35"/>
       <c r="W35"/>
@@ -2455,12 +3084,15 @@
       <c r="AS35"/>
       <c r="AT35"/>
       <c r="AU35"/>
-    </row>
-    <row r="36" spans="1:47" ht="33">
-      <c r="A36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T36"/>
+      <c r="AV35"/>
+    </row>
+    <row r="36" spans="1:48" ht="49.5">
+      <c r="A36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="U36"/>
       <c r="V36"/>
       <c r="W36"/>
@@ -2488,12 +3120,15 @@
       <c r="AS36"/>
       <c r="AT36"/>
       <c r="AU36"/>
-    </row>
-    <row r="37" spans="1:47" ht="33">
-      <c r="A37" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T37"/>
+      <c r="AV36"/>
+    </row>
+    <row r="37" spans="1:48" ht="66">
+      <c r="A37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="U37"/>
       <c r="V37"/>
       <c r="W37"/>
@@ -2521,12 +3156,15 @@
       <c r="AS37"/>
       <c r="AT37"/>
       <c r="AU37"/>
-    </row>
-    <row r="38" spans="1:47">
+      <c r="AV37"/>
+    </row>
+    <row r="38" spans="1:48" ht="132">
       <c r="A38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T38"/>
+        <v>88</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="U38"/>
       <c r="V38"/>
       <c r="W38"/>
@@ -2554,12 +3192,15 @@
       <c r="AS38"/>
       <c r="AT38"/>
       <c r="AU38"/>
-    </row>
-    <row r="39" spans="1:47" ht="49.5">
-      <c r="A39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T39"/>
+      <c r="AV38"/>
+    </row>
+    <row r="39" spans="1:48" ht="115.5">
+      <c r="A39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="U39"/>
       <c r="V39"/>
       <c r="W39"/>
@@ -2587,12 +3228,15 @@
       <c r="AS39"/>
       <c r="AT39"/>
       <c r="AU39"/>
-    </row>
-    <row r="40" spans="1:47" ht="66">
-      <c r="A40" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T40"/>
+      <c r="AV39"/>
+    </row>
+    <row r="40" spans="1:48" ht="115.5">
+      <c r="A40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="U40"/>
       <c r="V40"/>
       <c r="W40"/>
@@ -2620,12 +3264,15 @@
       <c r="AS40"/>
       <c r="AT40"/>
       <c r="AU40"/>
-    </row>
-    <row r="41" spans="1:47" ht="132">
-      <c r="A41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T41"/>
+      <c r="AV40"/>
+    </row>
+    <row r="41" spans="1:48">
+      <c r="A41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="U41"/>
       <c r="V41"/>
       <c r="W41"/>
@@ -2653,12 +3300,16 @@
       <c r="AS41"/>
       <c r="AT41"/>
       <c r="AU41"/>
-    </row>
-    <row r="42" spans="1:47" ht="115.5">
-      <c r="A42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T42"/>
+      <c r="AV41"/>
+    </row>
+    <row r="42" spans="1:48" ht="214.5">
+      <c r="A42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="3"/>
       <c r="U42"/>
       <c r="V42"/>
       <c r="W42"/>
@@ -2686,12 +3337,15 @@
       <c r="AS42"/>
       <c r="AT42"/>
       <c r="AU42"/>
-    </row>
-    <row r="43" spans="1:47" ht="115.5">
-      <c r="A43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T43"/>
+      <c r="AV42"/>
+    </row>
+    <row r="43" spans="1:48">
+      <c r="A43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="U43"/>
       <c r="V43"/>
       <c r="W43"/>
@@ -2719,12 +3373,15 @@
       <c r="AS43"/>
       <c r="AT43"/>
       <c r="AU43"/>
-    </row>
-    <row r="44" spans="1:47">
+      <c r="AV43"/>
+    </row>
+    <row r="44" spans="1:48">
       <c r="A44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T44"/>
+        <v>100</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="U44"/>
       <c r="V44"/>
       <c r="W44"/>
@@ -2752,13 +3409,15 @@
       <c r="AS44"/>
       <c r="AT44"/>
       <c r="AU44"/>
-    </row>
-    <row r="45" spans="1:47" ht="214.5">
-      <c r="A45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="T45"/>
+      <c r="AV44"/>
+    </row>
+    <row r="45" spans="1:48">
+      <c r="A45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="U45"/>
       <c r="V45"/>
       <c r="W45"/>
@@ -2786,12 +3445,15 @@
       <c r="AS45"/>
       <c r="AT45"/>
       <c r="AU45"/>
-    </row>
-    <row r="46" spans="1:47">
+      <c r="AV45"/>
+    </row>
+    <row r="46" spans="1:48">
       <c r="A46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T46"/>
+        <v>104</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="U46"/>
       <c r="V46"/>
       <c r="W46"/>
@@ -2819,12 +3481,15 @@
       <c r="AS46"/>
       <c r="AT46"/>
       <c r="AU46"/>
-    </row>
-    <row r="47" spans="1:47">
+      <c r="AV46"/>
+    </row>
+    <row r="47" spans="1:48">
       <c r="A47" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T47"/>
+        <v>106</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="U47"/>
       <c r="V47"/>
       <c r="W47"/>
@@ -2852,12 +3517,15 @@
       <c r="AS47"/>
       <c r="AT47"/>
       <c r="AU47"/>
-    </row>
-    <row r="48" spans="1:47">
+      <c r="AV47"/>
+    </row>
+    <row r="48" spans="1:48" ht="49.5">
       <c r="A48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T48"/>
+        <v>108</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="U48"/>
       <c r="V48"/>
       <c r="W48"/>
@@ -2885,12 +3553,15 @@
       <c r="AS48"/>
       <c r="AT48"/>
       <c r="AU48"/>
-    </row>
-    <row r="49" spans="1:47">
+      <c r="AV48"/>
+    </row>
+    <row r="49" spans="1:48">
       <c r="A49" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T49"/>
+        <v>110</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="U49"/>
       <c r="V49"/>
       <c r="W49"/>
@@ -2918,12 +3589,15 @@
       <c r="AS49"/>
       <c r="AT49"/>
       <c r="AU49"/>
-    </row>
-    <row r="50" spans="1:47">
+      <c r="AV49"/>
+    </row>
+    <row r="50" spans="1:48" ht="33">
       <c r="A50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T50"/>
+        <v>112</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="U50"/>
       <c r="V50"/>
       <c r="W50"/>
@@ -2951,12 +3625,15 @@
       <c r="AS50"/>
       <c r="AT50"/>
       <c r="AU50"/>
-    </row>
-    <row r="51" spans="1:47" ht="49.5">
-      <c r="A51" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T51"/>
+      <c r="AV50"/>
+    </row>
+    <row r="51" spans="1:48">
+      <c r="A51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="U51"/>
       <c r="V51"/>
       <c r="W51"/>
@@ -2984,12 +3661,15 @@
       <c r="AS51"/>
       <c r="AT51"/>
       <c r="AU51"/>
-    </row>
-    <row r="52" spans="1:47">
+      <c r="AV51"/>
+    </row>
+    <row r="52" spans="1:48">
       <c r="A52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T52"/>
+        <v>116</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="U52"/>
       <c r="V52"/>
       <c r="W52"/>
@@ -3017,12 +3697,15 @@
       <c r="AS52"/>
       <c r="AT52"/>
       <c r="AU52"/>
-    </row>
-    <row r="53" spans="1:47" ht="33">
-      <c r="A53" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T53"/>
+      <c r="AV52"/>
+    </row>
+    <row r="53" spans="1:48">
+      <c r="A53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="U53"/>
       <c r="V53"/>
       <c r="W53"/>
@@ -3050,12 +3733,15 @@
       <c r="AS53"/>
       <c r="AT53"/>
       <c r="AU53"/>
-    </row>
-    <row r="54" spans="1:47">
+      <c r="AV53"/>
+    </row>
+    <row r="54" spans="1:48" ht="66">
       <c r="A54" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T54"/>
+        <v>120</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="U54"/>
       <c r="V54"/>
       <c r="W54"/>
@@ -3083,12 +3769,12 @@
       <c r="AS54"/>
       <c r="AT54"/>
       <c r="AU54"/>
-    </row>
-    <row r="55" spans="1:47">
+      <c r="AV54"/>
+    </row>
+    <row r="55" spans="1:48">
       <c r="A55" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T55"/>
+        <v>122</v>
+      </c>
       <c r="U55"/>
       <c r="V55"/>
       <c r="W55"/>
@@ -3116,12 +3802,15 @@
       <c r="AS55"/>
       <c r="AT55"/>
       <c r="AU55"/>
-    </row>
-    <row r="56" spans="1:47">
+      <c r="AV55"/>
+    </row>
+    <row r="56" spans="1:48" ht="148.5">
       <c r="A56" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T56"/>
+        <v>123</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="U56"/>
       <c r="V56"/>
       <c r="W56"/>
@@ -3149,12 +3838,15 @@
       <c r="AS56"/>
       <c r="AT56"/>
       <c r="AU56"/>
-    </row>
-    <row r="57" spans="1:47" ht="66">
-      <c r="A57" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="T57"/>
+      <c r="AV56"/>
+    </row>
+    <row r="57" spans="1:48">
+      <c r="A57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="U57"/>
       <c r="V57"/>
       <c r="W57"/>
@@ -3182,9 +3874,15 @@
       <c r="AS57"/>
       <c r="AT57"/>
       <c r="AU57"/>
-    </row>
-    <row r="58" spans="1:47">
-      <c r="T58"/>
+      <c r="AV57"/>
+    </row>
+    <row r="58" spans="1:48">
+      <c r="A58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="U58"/>
       <c r="V58"/>
       <c r="W58"/>
@@ -3212,12 +3910,15 @@
       <c r="AS58"/>
       <c r="AT58"/>
       <c r="AU58"/>
-    </row>
-    <row r="59" spans="1:47" ht="148.5">
-      <c r="A59" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T59"/>
+      <c r="AV58"/>
+    </row>
+    <row r="59" spans="1:48">
+      <c r="A59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="U59"/>
       <c r="V59"/>
       <c r="W59"/>
@@ -3245,12 +3946,15 @@
       <c r="AS59"/>
       <c r="AT59"/>
       <c r="AU59"/>
-    </row>
-    <row r="60" spans="1:47">
+      <c r="AV59"/>
+    </row>
+    <row r="60" spans="1:48" ht="66">
       <c r="A60" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T60"/>
+        <v>131</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="U60"/>
       <c r="V60"/>
       <c r="W60"/>
@@ -3278,12 +3982,15 @@
       <c r="AS60"/>
       <c r="AT60"/>
       <c r="AU60"/>
-    </row>
-    <row r="61" spans="1:47">
+      <c r="AV60"/>
+    </row>
+    <row r="61" spans="1:48" ht="49.5">
       <c r="A61" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T61"/>
+        <v>133</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="U61"/>
       <c r="V61"/>
       <c r="W61"/>
@@ -3311,12 +4018,15 @@
       <c r="AS61"/>
       <c r="AT61"/>
       <c r="AU61"/>
-    </row>
-    <row r="62" spans="1:47">
+      <c r="AV61"/>
+    </row>
+    <row r="62" spans="1:48" ht="115.5">
       <c r="A62" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T62"/>
+        <v>135</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="U62"/>
       <c r="V62"/>
       <c r="W62"/>
@@ -3344,12 +4054,15 @@
       <c r="AS62"/>
       <c r="AT62"/>
       <c r="AU62"/>
-    </row>
-    <row r="63" spans="1:47" ht="66">
-      <c r="A63" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="T63"/>
+      <c r="AV62"/>
+    </row>
+    <row r="63" spans="1:48" ht="33">
+      <c r="A63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="U63"/>
       <c r="V63"/>
       <c r="W63"/>
@@ -3377,12 +4090,15 @@
       <c r="AS63"/>
       <c r="AT63"/>
       <c r="AU63"/>
-    </row>
-    <row r="64" spans="1:47" ht="49.5">
-      <c r="A64" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T64"/>
+      <c r="AV63"/>
+    </row>
+    <row r="64" spans="1:48" ht="148.5">
+      <c r="A64" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="U64"/>
       <c r="V64"/>
       <c r="W64"/>
@@ -3410,12 +4126,15 @@
       <c r="AS64"/>
       <c r="AT64"/>
       <c r="AU64"/>
-    </row>
-    <row r="65" spans="1:47" ht="115.5">
-      <c r="A65" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T65"/>
+      <c r="AV64"/>
+    </row>
+    <row r="65" spans="1:48">
+      <c r="A65" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="U65"/>
       <c r="V65"/>
       <c r="W65"/>
@@ -3443,12 +4162,15 @@
       <c r="AS65"/>
       <c r="AT65"/>
       <c r="AU65"/>
-    </row>
-    <row r="66" spans="1:47" ht="33">
-      <c r="A66" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="T66"/>
+      <c r="AV65"/>
+    </row>
+    <row r="66" spans="1:48" ht="66">
+      <c r="A66" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="U66"/>
       <c r="V66"/>
       <c r="W66"/>
@@ -3476,12 +4198,15 @@
       <c r="AS66"/>
       <c r="AT66"/>
       <c r="AU66"/>
-    </row>
-    <row r="67" spans="1:47" ht="148.5">
-      <c r="A67" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T67"/>
+      <c r="AV66"/>
+    </row>
+    <row r="67" spans="1:48">
+      <c r="A67" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="U67"/>
       <c r="V67"/>
       <c r="W67"/>
@@ -3509,12 +4234,15 @@
       <c r="AS67"/>
       <c r="AT67"/>
       <c r="AU67"/>
-    </row>
-    <row r="68" spans="1:47">
+      <c r="AV67"/>
+    </row>
+    <row r="68" spans="1:48">
       <c r="A68" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T68"/>
+        <v>147</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="U68"/>
       <c r="V68"/>
       <c r="W68"/>
@@ -3542,12 +4270,15 @@
       <c r="AS68"/>
       <c r="AT68"/>
       <c r="AU68"/>
-    </row>
-    <row r="69" spans="1:47" ht="66">
-      <c r="A69" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T69"/>
+      <c r="AV68"/>
+    </row>
+    <row r="69" spans="1:48">
+      <c r="A69" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="U69"/>
       <c r="V69"/>
       <c r="W69"/>
@@ -3575,12 +4306,15 @@
       <c r="AS69"/>
       <c r="AT69"/>
       <c r="AU69"/>
-    </row>
-    <row r="70" spans="1:47">
+      <c r="AV69"/>
+    </row>
+    <row r="70" spans="1:48">
       <c r="A70" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="T70"/>
+        <v>151</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="U70"/>
       <c r="V70"/>
       <c r="W70"/>
@@ -3608,12 +4342,15 @@
       <c r="AS70"/>
       <c r="AT70"/>
       <c r="AU70"/>
-    </row>
-    <row r="71" spans="1:47">
+      <c r="AV70"/>
+    </row>
+    <row r="71" spans="1:48">
       <c r="A71" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T71"/>
+        <v>153</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="U71"/>
       <c r="V71"/>
       <c r="W71"/>
@@ -3641,12 +4378,15 @@
       <c r="AS71"/>
       <c r="AT71"/>
       <c r="AU71"/>
-    </row>
-    <row r="72" spans="1:47">
+      <c r="AV71"/>
+    </row>
+    <row r="72" spans="1:48">
       <c r="A72" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="T72"/>
+        <v>155</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="U72"/>
       <c r="V72"/>
       <c r="W72"/>
@@ -3674,12 +4414,15 @@
       <c r="AS72"/>
       <c r="AT72"/>
       <c r="AU72"/>
-    </row>
-    <row r="73" spans="1:47">
+      <c r="AV72"/>
+    </row>
+    <row r="73" spans="1:48" ht="82.5">
       <c r="A73" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="T73"/>
+        <v>157</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="U73"/>
       <c r="V73"/>
       <c r="W73"/>
@@ -3707,12 +4450,15 @@
       <c r="AS73"/>
       <c r="AT73"/>
       <c r="AU73"/>
-    </row>
-    <row r="74" spans="1:47">
+      <c r="AV73"/>
+    </row>
+    <row r="74" spans="1:48">
       <c r="A74" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T74"/>
+        <v>159</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="U74"/>
       <c r="V74"/>
       <c r="W74"/>
@@ -3740,12 +4486,15 @@
       <c r="AS74"/>
       <c r="AT74"/>
       <c r="AU74"/>
-    </row>
-    <row r="75" spans="1:47">
+      <c r="AV74"/>
+    </row>
+    <row r="75" spans="1:48" ht="132">
       <c r="A75" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T75"/>
+        <v>161</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="U75"/>
       <c r="V75"/>
       <c r="W75"/>
@@ -3773,506 +4522,641 @@
       <c r="AS75"/>
       <c r="AT75"/>
       <c r="AU75"/>
-    </row>
-    <row r="76" spans="1:47" ht="82.5">
-      <c r="A76" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T76"/>
-      <c r="U76"/>
-      <c r="V76"/>
-      <c r="W76"/>
-      <c r="X76"/>
-      <c r="Y76"/>
-      <c r="Z76"/>
-      <c r="AA76"/>
-      <c r="AB76"/>
-      <c r="AC76"/>
-      <c r="AD76"/>
-      <c r="AE76"/>
-      <c r="AF76"/>
-      <c r="AG76"/>
-      <c r="AH76"/>
-      <c r="AI76"/>
-      <c r="AJ76"/>
-      <c r="AK76"/>
-      <c r="AL76"/>
-      <c r="AM76"/>
-      <c r="AN76"/>
-      <c r="AO76"/>
-      <c r="AP76"/>
-      <c r="AQ76"/>
-      <c r="AR76"/>
-      <c r="AS76"/>
-      <c r="AT76"/>
-      <c r="AU76"/>
-    </row>
-    <row r="77" spans="1:47">
+      <c r="AV75"/>
+    </row>
+    <row r="76" spans="1:48">
+      <c r="A76" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:48">
       <c r="A77" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T77"/>
-      <c r="U77"/>
-      <c r="V77"/>
-      <c r="W77"/>
-      <c r="X77"/>
-      <c r="Y77"/>
-      <c r="Z77"/>
-      <c r="AA77"/>
-      <c r="AB77"/>
-      <c r="AC77"/>
-      <c r="AD77"/>
-      <c r="AE77"/>
-      <c r="AF77"/>
-      <c r="AG77"/>
-      <c r="AH77"/>
-      <c r="AI77"/>
-      <c r="AJ77"/>
-      <c r="AK77"/>
-      <c r="AL77"/>
-      <c r="AM77"/>
-      <c r="AN77"/>
-      <c r="AO77"/>
-      <c r="AP77"/>
-      <c r="AQ77"/>
-      <c r="AR77"/>
-      <c r="AS77"/>
-      <c r="AT77"/>
-      <c r="AU77"/>
-    </row>
-    <row r="78" spans="1:47" ht="132">
+        <v>165</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:48">
       <c r="A78" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T78"/>
-      <c r="U78"/>
-      <c r="V78"/>
-      <c r="W78"/>
-      <c r="X78"/>
-      <c r="Y78"/>
-      <c r="Z78"/>
-      <c r="AA78"/>
-      <c r="AB78"/>
-      <c r="AC78"/>
-      <c r="AD78"/>
-      <c r="AE78"/>
-      <c r="AF78"/>
-      <c r="AG78"/>
-      <c r="AH78"/>
-      <c r="AI78"/>
-      <c r="AJ78"/>
-      <c r="AK78"/>
-      <c r="AL78"/>
-      <c r="AM78"/>
-      <c r="AN78"/>
-      <c r="AO78"/>
-      <c r="AP78"/>
-      <c r="AQ78"/>
-      <c r="AR78"/>
-      <c r="AS78"/>
-      <c r="AT78"/>
-      <c r="AU78"/>
-    </row>
-    <row r="79" spans="1:47">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:48" ht="280.5">
       <c r="A79" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="1:47">
+        <v>168</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:48">
       <c r="A80" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" ht="280.5">
-      <c r="A82" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19">
+        <v>170</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="49.5">
+      <c r="A81" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="165">
+      <c r="A82" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="99">
       <c r="A83" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" ht="49.5">
-      <c r="A84" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" ht="181.5">
-      <c r="A85" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" ht="99">
-      <c r="A86" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="49.5">
-      <c r="A87" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" ht="82.5">
-      <c r="A88" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" ht="99">
-      <c r="A89" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="66">
-      <c r="A90" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
-      <c r="O90" s="3"/>
-      <c r="P90" s="3"/>
-      <c r="Q90" s="3"/>
-      <c r="R90" s="3"/>
-      <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="1:19" ht="363">
-      <c r="A91" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-      <c r="P91" s="3"/>
-      <c r="Q91" s="3"/>
-      <c r="R91" s="3"/>
-      <c r="S91" s="3"/>
-    </row>
-    <row r="92" spans="1:19" ht="49.5">
-      <c r="A92" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
-      <c r="O92" s="3"/>
-      <c r="P92" s="3"/>
-      <c r="Q92" s="3"/>
-      <c r="R92" s="3"/>
-      <c r="S92" s="3"/>
-    </row>
-    <row r="93" spans="1:19">
+        <v>176</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="49.5">
+      <c r="A84" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="82.5">
+      <c r="A85" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="99">
+      <c r="A86" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="66">
+      <c r="A87" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+    </row>
+    <row r="88" spans="1:20" ht="363">
+      <c r="A88" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+    </row>
+    <row r="89" spans="1:20" ht="49.5">
+      <c r="A89" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+    </row>
+    <row r="90" spans="1:20">
+      <c r="A90" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="132">
+      <c r="A91" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="33">
+      <c r="A92" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="66">
       <c r="A93" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" ht="132">
-      <c r="A94" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" ht="33">
-      <c r="A95" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" ht="66">
-      <c r="A96" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
-      <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
-      <c r="R96" s="3"/>
-      <c r="S96" s="3"/>
-    </row>
-    <row r="97" spans="1:19" ht="66">
-      <c r="A97" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
-      <c r="O97" s="3"/>
-      <c r="P97" s="3"/>
-      <c r="Q97" s="3"/>
-      <c r="R97" s="3"/>
-      <c r="S97" s="3"/>
-    </row>
-    <row r="98" spans="1:19" ht="132">
-      <c r="A98" s="3" t="s">
-        <v>93</v>
+        <v>196</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+    </row>
+    <row r="94" spans="1:20" ht="66">
+      <c r="A94" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+    </row>
+    <row r="95" spans="1:20" ht="148.5">
+      <c r="A95" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O95" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="P95" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q95" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="R95" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="S95" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="T95" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="165">
+      <c r="A96" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="181.5">
+      <c r="A97" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="33">
+      <c r="A98" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M98" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N98" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O98" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P98" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q98" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="R98" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="S98" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" ht="165">
-      <c r="A99" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" ht="181.5">
-      <c r="A100" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" ht="33">
-      <c r="A101" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" ht="99">
-      <c r="A102" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" ht="99">
-      <c r="A103" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" ht="132">
-      <c r="A104" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="99">
+      <c r="A99" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="99">
+      <c r="A100" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="132">
+      <c r="A101" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20">
+      <c r="A102" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="S102" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="T102" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" ht="99">
+      <c r="A103" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="66">
+      <c r="A104" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20">
       <c r="A105" s="1" t="s">
-        <v>118</v>
+        <v>256</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="P105" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q105" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="R105" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="S105" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" ht="99">
-      <c r="A106" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" ht="66">
-      <c r="A107" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20">
+      <c r="A106" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" ht="148.5">
+      <c r="A107" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" ht="49.5">
       <c r="A108" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19">
+        <v>262</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="66">
       <c r="A109" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" ht="148.5">
-      <c r="A110" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" ht="49.5">
-      <c r="A111" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" ht="66">
-      <c r="A112" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="66">
-      <c r="A113" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="148.5">
-      <c r="A114" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="99">
-      <c r="A115" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="66">
-      <c r="A116" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="49.5">
-      <c r="A117" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" ht="49.5">
-      <c r="A118" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="99">
-      <c r="A119" s="3" t="s">
-        <v>150</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" ht="66">
+      <c r="A110" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" ht="148.5">
+      <c r="A111" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" ht="99">
+      <c r="A112" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="113" spans="1:49" ht="66">
+      <c r="A113" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="114" spans="1:49" ht="49.5">
+      <c r="A114" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="115" spans="1:49" ht="49.5">
+      <c r="A115" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="116" spans="1:49" ht="99">
+      <c r="A116" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="117" spans="1:49" customFormat="1" ht="99">
+      <c r="A117" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="AW117" s="1"/>
+    </row>
+    <row r="118" spans="1:49" customFormat="1" ht="66">
+      <c r="A118" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="AW118" s="1"/>
+    </row>
+    <row r="119" spans="1:49" customFormat="1" ht="82.5">
+      <c r="A119" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="AW119" s="1"/>
+    </row>
+    <row r="120" spans="1:49" customFormat="1" ht="49.5">
+      <c r="A120" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="AW120" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S118" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:T115" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
